--- a/biology/Botanique/Algarrobina/Algarrobina.xlsx
+++ b/biology/Botanique/Algarrobina/Algarrobina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’algarrobina ou sirop de mesquite est un sirop tiré de la gousse de Prosopis pallida[1]  (Algarobbo), un arbre originaire d'Amérique du Sud. Il est largement utilisé dans la cuisine péruvienne. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’algarrobina ou sirop de mesquite est un sirop tiré de la gousse de Prosopis pallida  (Algarobbo), un arbre originaire d'Amérique du Sud. Il est largement utilisé dans la cuisine péruvienne. 
 Le caroubier d'Afrique du nord, arbre différent (Ceratonia siliqua L.), produit un sirop comparable (sirop de caroube), parfois appelé algarrobina. 
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sirop est obtenu par cuisson des gousses. L'extrait est concentré pour obtenir un sirop sucré apprécié pour ses propriétés nutritionnelles. Il contient plus de minéraux que le miel et est plus nutritif que celui obtenu à partir de la pomme de cajou[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sirop est obtenu par cuisson des gousses. L'extrait est concentré pour obtenir un sirop sucré apprécié pour ses propriétés nutritionnelles. Il contient plus de minéraux que le miel et est plus nutritif que celui obtenu à partir de la pomme de cajou. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'algarrobina est ajouté au pisco pour l'élaboration du cocktail éponyme.
 </t>
